--- a/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-需求条目详细信息报表.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-需求条目详细信息报表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\软件需求规格说明书\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\软件需求规格说明书\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CAB912-E7AC-43EB-86DC-38C52F87542C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A5F5A-DED7-416B-9824-D9045615E959}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="9228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户端需求" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="118">
   <si>
     <t>客户端需求/当前版本 需求条目详细信息报表</t>
   </si>
@@ -303,6 +303,94 @@
   </si>
   <si>
     <t>管理端需求/当前版本 需求条目详细信息报表</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看当前位置的天气</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看钓友的个人渔友圈</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看钓友</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看附近渔友圈</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看单条动态详情</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看渔具店详情</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看附近渔具店</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看钓点详情</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看附近钓点</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔友圈按热度、时间排序</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近渔友圈</t>
+  </si>
+  <si>
+    <t>查看消息提示</t>
+  </si>
+  <si>
+    <t>查看到各个渔友的注册时间</t>
+  </si>
+  <si>
+    <t>约钓推荐改为系统推荐</t>
+  </si>
+  <si>
+    <t>在约钓开始前，允许群主增删人</t>
+  </si>
+  <si>
+    <t>在约钓开始前，允许群主手动提前结束、提前开始、取消活动</t>
+  </si>
+  <si>
+    <t>在发起约钓时，需要发起人选择参与人范围、分享可见的范围</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>约钓需要五个状态</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增操作提交的信息允许提交人修改</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建钓点的用户自动成为该钓点的管理员</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅资深用户可以投诉</t>
+  </si>
+  <si>
+    <t>投诉功能</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面地图显示需要筛选条件，全部钓点or查看好友的钓点or我建立的钓点</t>
+  </si>
+  <si>
+    <t>当主界面地图以卫星图方式显示时，图标颜色需要改变（否则看不清楚）</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,6 +1054,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1334,16 +1425,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
@@ -1359,23 +1450,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3607,7 +3698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -3647,6 +3738,1038 @@
         <v>73</v>
       </c>
       <c r="O54" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="4">
+        <v>88</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="5">
+        <v>100</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="4">
+        <v>87</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="5">
+        <v>100</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="4">
+        <v>86</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="5">
+        <v>100</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="4">
+        <v>85</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="5">
+        <v>100</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="4">
+        <v>84</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="5">
+        <v>100</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="4">
+        <v>83</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="5">
+        <v>100</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="4">
+        <v>82</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="5">
+        <v>100</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="4">
+        <v>81</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="5">
+        <v>100</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="4">
+        <v>80</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="5">
+        <v>100</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="4">
+        <v>79</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="5">
+        <v>100</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="4">
+        <v>78</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="5">
+        <v>100</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="4">
+        <v>77</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="5">
+        <v>100</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="4">
+        <v>76</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="5">
+        <v>100</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="4">
+        <v>75</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="5">
+        <v>100</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="4">
+        <v>74</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="5">
+        <v>100</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="4">
+        <v>73</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="5">
+        <v>100</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="4">
+        <v>72</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="5">
+        <v>100</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="4">
+        <v>71</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="5">
+        <v>100</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="K72" s="5">
+        <v>0</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="4">
+        <v>70</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="5">
+        <v>100</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="4">
+        <v>69</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="5">
+        <v>100</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="4">
+        <v>89</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="5">
+        <v>100</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="K75" s="5">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="4">
+        <v>90</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="5">
+        <v>100</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="4">
+        <v>91</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="5">
+        <v>100</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
+        <v>0</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="4">
+        <v>92</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="5">
+        <v>100</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="5">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O78" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3664,7 +4787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C95DF-2361-4708-BB06-863EB8ACCFAB}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -3688,23 +4811,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
